--- a/biology/Zoologie/Gigantisme/Gigantisme.xlsx
+++ b/biology/Zoologie/Gigantisme/Gigantisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gigantisme (du grec gigas, gigantos « géant ») chez les animaux et les végétaux se réfère à une taille exceptionnellement grande par rapport aux autres membres de leur espèce ou à d'autres espèces similaires (voir par exemple le gigantisme insulaire, le gigantisme abyssal et la gigantothermie). 
 Chez l'homme, il désigne un état pathologique caractérisé par une croissance excessive. C'est la seule condition qui englobe presque tous les cas de pathologie de taille extrême.
-Au sens figuré, le gigantisme caractérise ce qui est démesuré, gigantesque[1].
+Au sens figuré, le gigantisme caractérise ce qui est démesuré, gigantesque.
 Le gigantisme n'est pas un terme médical couramment utilisé à l'heure actuelle ; de plus, il n'existe pas de définition précise de la taille à partir de laquelle on parle de géant. Le terme a été appliqué typiquement à ceux dont la taille n'est pas dans le dernier centile de la population mais de nombreuses fois l'écart type au-dessus de la moyenne des personnes du même sexe, âge et appartenance ethnique.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Gigantisme hypophysaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'excès d'hormone est souvent due à la sur-sécrétion d'un groupe de cellule somatotrope de l'anté-hypophyse (appelée adénome somatotrope). Ces cellules ne répondent pas aux contrôles normaux de la croissance ainsi que leurs fonctions. 
 Ils grandissent très lentement, donc pendant plusieurs années le seul effet de cette dite adénome sont les effets de l'hormone de croissance excessive. Les premiers symptômes d'un excès d'hormone de croissance pendant l'enfance est la croissance excessive, cette grande taille est également accompagnée d'une morphologie caractéristique, reconnaissable par un endocrinologue. 
@@ -551,7 +565,9 @@
           <t>Autres conditions d'hypercroissance ou de taille excessive chez les enfants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Obésité précoce
 La puberté précoce
@@ -596,7 +612,9 @@
           <t>Étymologie et terminologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">D'autres noms quelque peu obsolètes pour cette pathologie sont l'hypersomie (grec hyper au-dessus du niveau normal " et soma, somatos, « corps »), la macrogenèse (grec makros « grand, production, génération ») et somatomégalie (en grec : soma, somatos, « corps » et megas, megas, megalos, great).
 </t>
